--- a/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
@@ -966,97 +966,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4837,97 +4837,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>748</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>815</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5000,12 +5000,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8708,97 +8708,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>965</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>853</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en País Vasco</t>
+          <t>Continente de nacimiento en País Vasco (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4416,7 +4416,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en C.Valenciana</t>
+          <t>Continente de nacimiento en C.Valenciana (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8287,7 +8287,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en Barcelona</t>
+          <t>Continente de nacimiento en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5689</t>
+          <t>6179</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>6588</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>8253</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8833</t>
+          <t>11487</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>388</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>823</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1109,32 +1109,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>854</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>268</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1144,32 +1144,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1187,32 +1187,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5212</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8357</t>
+          <t>7723</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1222,32 +1222,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4717</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1257,32 +1257,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>8470</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>6305</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>11004</t>
+          <t>11315</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -1300,32 +1300,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1335,32 +1335,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1370,32 +1370,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>5799</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1413,32 +1413,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75938</t>
+          <t>69117</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72522</t>
+          <t>65773</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78627</t>
+          <t>72004</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>83,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1448,32 +1448,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>117986</t>
+          <t>110003</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>114909</t>
+          <t>106664</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>120433</t>
+          <t>112751</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1483,32 +1483,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>193925</t>
+          <t>179120</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>189665</t>
+          <t>174253</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>197740</t>
+          <t>182936</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>87,27%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>87,47%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>89,13%</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88631</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88631</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88631</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,17 +1561,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>216843</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>216843</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>216843</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19436</t>
+          <t>22685</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15897</t>
+          <t>18731</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23526</t>
+          <t>27664</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,32 +1678,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27492</t>
+          <t>34196</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23198</t>
+          <t>29222</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>32315</t>
+          <t>39562</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,32 +1713,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>46928</t>
+          <t>56881</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>41374</t>
+          <t>50659</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>53591</t>
+          <t>64338</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1756,32 +1756,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1791,32 +1791,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9862</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7476</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13211</t>
+          <t>13393</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1826,32 +1826,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13234</t>
+          <t>14161</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>10875</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16995</t>
+          <t>17993</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1904,22 +1904,22 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>270</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1939,32 +1939,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>327</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>2913</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -1982,32 +1982,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2017,67 +2017,67 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5734</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
           <t>0,42%</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>4162</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>2733</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -2095,32 +2095,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7563</t>
+          <t>7137</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5495</t>
+          <t>5228</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10397</t>
+          <t>9775</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2130,32 +2130,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9069</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2165,32 +2165,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13950</t>
+          <t>12669</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10832</t>
+          <t>9790</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17552</t>
+          <t>15577</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -2208,32 +2208,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9367</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6931</t>
+          <t>6854</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12365</t>
+          <t>12067</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2243,32 +2243,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3795</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7645</t>
+          <t>8540</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>14805</t>
+          <t>15170</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>11710</t>
+          <t>11691</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>18206</t>
+          <t>18642</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -2321,32 +2321,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>410368</t>
+          <t>416306</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>404703</t>
+          <t>410094</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>415853</t>
+          <t>421976</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2356,32 +2356,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>380358</t>
+          <t>385332</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>375088</t>
+          <t>378780</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>386067</t>
+          <t>391383</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2391,32 +2391,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>790726</t>
+          <t>801638</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>781863</t>
+          <t>792599</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>798274</t>
+          <t>810316</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>89,3%</t>
         </is>
       </c>
     </row>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>452440</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>452440</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>452440</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2469,17 +2469,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>432168</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>432168</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>432168</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2504,17 +2504,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>884608</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>884608</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>884608</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2551,32 +2551,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5450</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3728</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8216</t>
+          <t>8079</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2586,32 +2586,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>8938</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>6650</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>12017</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2621,32 +2621,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>12633</t>
+          <t>14290</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>9646</t>
+          <t>11109</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>15999</t>
+          <t>18253</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -2664,32 +2664,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>840</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>256</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2699,32 +2699,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2734,32 +2734,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>5701</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>609</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2787,92 +2787,92 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2746</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
           <t>0,27%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>736</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>2209</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>782</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>475</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2935,12 +2935,12 @@
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>619</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>144</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -3003,32 +3003,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>625</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3038,32 +3038,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>555</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>109</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3073,32 +3073,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -3116,32 +3116,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6427</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3151,32 +3151,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5038</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>7580</t>
+          <t>7342</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3186,32 +3186,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>8547</t>
+          <t>9393</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>11472</t>
+          <t>12574</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -3229,32 +3229,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>139996</t>
+          <t>163178</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>136339</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>142672</t>
+          <t>166060</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3264,32 +3264,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>179479</t>
+          <t>210768</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>175605</t>
+          <t>206894</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>182299</t>
+          <t>214313</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3299,32 +3299,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>319475</t>
+          <t>373946</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>314946</t>
+          <t>368813</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>378748</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -3342,17 +3342,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>151603</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>151603</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>151603</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3377,17 +3377,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>195536</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>195536</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>195536</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>347139</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>347139</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>347139</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3459,32 +3459,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>28316</t>
+          <t>31891</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>23830</t>
+          <t>27107</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>33466</t>
+          <t>37589</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3494,32 +3494,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>37656</t>
+          <t>47534</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>32382</t>
+          <t>41418</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>43248</t>
+          <t>54191</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>65971</t>
+          <t>79425</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>59206</t>
+          <t>71086</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>73670</t>
+          <t>88202</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -3572,32 +3572,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>5070</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3607,32 +3607,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14445</t>
+          <t>14583</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>11419</t>
+          <t>11543</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>18017</t>
+          <t>18103</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3642,32 +3642,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>19153</t>
+          <t>19653</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>15416</t>
+          <t>15882</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>23295</t>
+          <t>23995</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>609</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3720,32 +3720,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>670</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3755,32 +3755,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -3798,32 +3798,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3846</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>8491</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3833,32 +3833,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3868,32 +3868,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>9825</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>13019</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -3911,32 +3911,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>14433</t>
+          <t>13678</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>11450</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>18232</t>
+          <t>16675</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3946,32 +3946,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9957</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>7321</t>
+          <t>6961</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>13088</t>
+          <t>12129</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3981,32 +3981,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>24390</t>
+          <t>22977</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>20609</t>
+          <t>19442</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>29082</t>
+          <t>27776</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -4024,32 +4024,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>14658</t>
+          <t>15337</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11570</t>
+          <t>12106</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>18489</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4059,32 +4059,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>13201</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>9681</t>
+          <t>10549</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>15778</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4094,32 +4094,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>27020</t>
+          <t>28538</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>23087</t>
+          <t>24311</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>32391</t>
+          <t>33629</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -4137,32 +4137,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>626303</t>
+          <t>648601</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>618862</t>
+          <t>640676</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>632803</t>
+          <t>655217</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4172,32 +4172,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>677824</t>
+          <t>706103</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>670659</t>
+          <t>697939</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>684726</t>
+          <t>714299</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4207,32 +4207,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>1304126</t>
+          <t>1354704</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1293699</t>
+          <t>1344113</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1314034</t>
+          <t>1365539</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>89,99%</t>
         </is>
       </c>
     </row>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>692675</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>692675</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>692675</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4285,17 +4285,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>755916</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>755916</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>755916</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1448590</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1448590</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1448590</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8482,12 +8482,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13094</t>
+          <t>12639</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8517,12 +8517,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5175</t>
+          <t>4958</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16528</t>
+          <t>16074</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8532,12 +8532,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8552,12 +8552,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8860</t>
+          <t>9071</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22930</t>
+          <t>23697</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8567,12 +8567,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -8595,12 +8595,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8610,12 +8610,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8630,12 +8630,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>751</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5181</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8645,12 +8645,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8665,12 +8665,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>6926</t>
+          <t>6688</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8680,12 +8680,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>6296</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7525</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8871,12 +8871,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8891,12 +8891,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2954</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10894</t>
+          <t>10417</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8906,12 +8906,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -8934,12 +8934,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8705</t>
+          <t>8239</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29642</t>
+          <t>30348</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8949,12 +8949,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -8969,12 +8969,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17886</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8984,12 +8984,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9004,12 +9004,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>13804</t>
+          <t>15711</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>40598</t>
+          <t>41884</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9019,12 +9019,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -9047,12 +9047,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>547</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>5048</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9062,12 +9062,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -9082,12 +9082,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>755</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9097,12 +9097,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -9117,12 +9117,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9132,12 +9132,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -9160,12 +9160,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57811</t>
+          <t>58083</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79227</t>
+          <t>79913</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9175,12 +9175,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,66%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9195,12 +9195,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86838</t>
+          <t>86927</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>104893</t>
+          <t>103538</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9210,12 +9210,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9230,12 +9230,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>150566</t>
+          <t>150177</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>178329</t>
+          <t>178934</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9245,12 +9245,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>81,7%</t>
         </is>
       </c>
     </row>
@@ -9390,12 +9390,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40712</t>
+          <t>41256</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60329</t>
+          <t>61661</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9405,12 +9405,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9425,12 +9425,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41308</t>
+          <t>41495</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62475</t>
+          <t>61229</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9440,12 +9440,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9460,12 +9460,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>88019</t>
+          <t>87105</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>118509</t>
+          <t>116640</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9475,12 +9475,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,41%</t>
         </is>
       </c>
     </row>
@@ -9503,12 +9503,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10124</t>
+          <t>10521</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21815</t>
+          <t>22021</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9538,12 +9538,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16749</t>
+          <t>16615</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9573,12 +9573,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20305</t>
+          <t>19819</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34623</t>
+          <t>34883</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9588,12 +9588,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9651,12 +9651,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>374</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9686,12 +9686,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>504</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -9729,12 +9729,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9040</t>
+          <t>9158</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20093</t>
+          <t>19921</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9744,12 +9744,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9764,12 +9764,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5766</t>
+          <t>5899</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15941</t>
+          <t>16180</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9779,12 +9779,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9799,12 +9799,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16323</t>
+          <t>16581</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>32099</t>
+          <t>31658</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -9842,12 +9842,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15094</t>
+          <t>15710</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9857,12 +9857,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9877,12 +9877,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>5026</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13718</t>
+          <t>14116</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9892,12 +9892,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9912,12 +9912,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12741</t>
+          <t>12810</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25248</t>
+          <t>25551</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9927,12 +9927,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12702</t>
+          <t>13326</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24814</t>
+          <t>25863</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9970,12 +9970,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9990,12 +9990,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11146</t>
+          <t>11125</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23985</t>
+          <t>24511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10005,12 +10005,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10025,12 +10025,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>27375</t>
+          <t>25860</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>44563</t>
+          <t>44740</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10040,12 +10040,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -10068,12 +10068,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>235484</t>
+          <t>234337</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>260499</t>
+          <t>261018</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10083,12 +10083,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -10103,12 +10103,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>242145</t>
+          <t>243843</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>267891</t>
+          <t>268627</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10118,12 +10118,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -10138,12 +10138,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>486932</t>
+          <t>488637</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>522005</t>
+          <t>522676</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10153,12 +10153,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>73,54%</t>
         </is>
       </c>
     </row>
@@ -10298,12 +10298,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15922</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29952</t>
+          <t>29746</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10313,12 +10313,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10333,12 +10333,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26573</t>
+          <t>26796</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>45260</t>
+          <t>45077</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10348,12 +10348,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10368,12 +10368,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>46192</t>
+          <t>45607</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>69205</t>
+          <t>68774</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -10411,12 +10411,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>291</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10446,12 +10446,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7276</t>
+          <t>7647</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10461,12 +10461,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10481,12 +10481,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>2195</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>8598</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10496,12 +10496,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -10524,12 +10524,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>407</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3548</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10559,12 +10559,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9128</t>
+          <t>9636</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10574,12 +10574,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10594,12 +10594,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>11484</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10609,12 +10609,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -10637,12 +10637,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10714</t>
+          <t>10562</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10652,12 +10652,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10672,12 +10672,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>12063</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10687,12 +10687,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10707,12 +10707,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>7979</t>
+          <t>8199</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>19213</t>
+          <t>18819</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10722,12 +10722,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -10750,12 +10750,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6501</t>
+          <t>6836</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10765,12 +10765,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -10785,12 +10785,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>7861</t>
+          <t>8033</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -10800,12 +10800,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>11017</t>
+          <t>10944</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -10835,12 +10835,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -10863,12 +10863,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>25390</t>
+          <t>24926</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42261</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -10878,12 +10878,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -10898,12 +10898,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>25877</t>
+          <t>26619</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>45051</t>
+          <t>44046</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -10913,12 +10913,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -10933,12 +10933,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>55936</t>
+          <t>56111</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>79380</t>
+          <t>82015</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>16,15%</t>
         </is>
       </c>
     </row>
@@ -10976,12 +10976,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>146745</t>
+          <t>146031</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>167285</t>
+          <t>167387</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -10991,12 +10991,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>183673</t>
+          <t>183846</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>207198</t>
+          <t>206853</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -11046,12 +11046,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>336854</t>
+          <t>334652</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>368175</t>
+          <t>366397</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -11061,12 +11061,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>66,34%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>72,16%</t>
         </is>
       </c>
     </row>
@@ -11206,12 +11206,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>66464</t>
+          <t>65353</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>92302</t>
+          <t>92467</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -11221,12 +11221,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>80317</t>
+          <t>80326</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>110254</t>
+          <t>108872</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>153242</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>191045</t>
+          <t>193728</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -11291,12 +11291,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,48%</t>
         </is>
       </c>
     </row>
@@ -11319,12 +11319,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11531</t>
+          <t>12144</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24370</t>
+          <t>24744</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -11334,12 +11334,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -11354,12 +11354,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>12293</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>23364</t>
+          <t>23289</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -11369,12 +11369,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -11389,12 +11389,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>27090</t>
+          <t>27241</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>44107</t>
+          <t>43026</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -11404,12 +11404,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -11432,12 +11432,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>571</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -11447,12 +11447,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3411</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>12547</t>
+          <t>11404</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -11482,12 +11482,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>13254</t>
+          <t>12950</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -11517,12 +11517,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -11545,12 +11545,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16260</t>
+          <t>16670</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>30383</t>
+          <t>30387</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>13647</t>
+          <t>13552</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>27022</t>
+          <t>28274</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -11595,12 +11595,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>32962</t>
+          <t>31868</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>53302</t>
+          <t>50969</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -11630,12 +11630,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -11658,12 +11658,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20284</t>
+          <t>20224</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>47286</t>
+          <t>48911</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -11693,12 +11693,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12558</t>
+          <t>12405</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>30168</t>
+          <t>31058</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -11708,12 +11708,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -11728,12 +11728,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>36594</t>
+          <t>36974</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>71197</t>
+          <t>68872</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -11743,12 +11743,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -11771,12 +11771,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>44366</t>
+          <t>43476</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>66402</t>
+          <t>66523</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -11786,12 +11786,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -11806,12 +11806,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>43086</t>
+          <t>42357</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>65879</t>
+          <t>67559</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -11841,12 +11841,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>92571</t>
+          <t>92150</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>125286</t>
+          <t>124505</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -11856,12 +11856,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -11884,12 +11884,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>454570</t>
+          <t>452338</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>494214</t>
+          <t>493368</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -11899,12 +11899,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>66,88%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -11919,12 +11919,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>528246</t>
+          <t>526371</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>566649</t>
+          <t>567706</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -11934,12 +11934,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -11954,12 +11954,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>996313</t>
+          <t>995254</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1050536</t>
+          <t>1049300</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -11969,12 +11969,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>69,31%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>73,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en País Vasco (tasa de respuesta: 99,59%)</t>
+          <t>Continente de nacimiento en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>5553</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>12639</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>8914</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>4958</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6588</t>
+          <t>16074</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8253</t>
+          <t>14467</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>9071</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11487</t>
+          <t>23697</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>751</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>6688</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1069,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6296</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7038</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2618</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1365</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>854</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2180</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2954</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>10417</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1182,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5212</t>
+          <t>17888</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>8239</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7723</t>
+          <t>30348</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>25770</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>6305</t>
+          <t>15711</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>11315</t>
+          <t>41884</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -1295,107 +1295,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>547</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>5048</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>755</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>5799</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -1408,107 +1408,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69117</t>
+          <t>69370</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65773</t>
+          <t>58083</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72004</t>
+          <t>79913</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>83,07%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>256</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>110003</t>
+          <t>96560</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>106664</t>
+          <t>86927</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>112751</t>
+          <t>103538</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>414</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>179120</t>
+          <t>165930</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>174253</t>
+          <t>150177</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>182936</t>
+          <t>178934</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>81,7%</t>
         </is>
       </c>
     </row>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83202</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83202</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83202</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1556,22 +1556,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1591,22 +1591,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>205245</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>205245</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>205245</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1638,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22685</t>
+          <t>50632</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18731</t>
+          <t>41256</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27664</t>
+          <t>61661</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>34196</t>
+          <t>50342</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29222</t>
+          <t>41495</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>39562</t>
+          <t>61229</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>185</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>56881</t>
+          <t>100974</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>50659</t>
+          <t>87105</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>64338</t>
+          <t>116640</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>16,41%</t>
         </is>
       </c>
     </row>
@@ -1751,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3843</t>
+          <t>15088</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>10521</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6177</t>
+          <t>22021</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10319</t>
+          <t>11460</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13393</t>
+          <t>16615</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>14161</t>
+          <t>26548</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10875</t>
+          <t>19819</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17993</t>
+          <t>34883</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1864,107 +1864,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1178</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>504</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1977,107 +1977,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>13619</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>9158</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5104</t>
+          <t>19921</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>9662</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>5899</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>16180</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>5734</t>
+          <t>23281</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>16581</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>31658</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -2090,107 +2090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7137</t>
+          <t>9892</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9775</t>
+          <t>15710</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>8273</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3969</t>
+          <t>5026</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7839</t>
+          <t>14116</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12669</t>
+          <t>18166</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9790</t>
+          <t>12810</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15577</t>
+          <t>25551</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -2203,107 +2203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9200</t>
+          <t>18505</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6854</t>
+          <t>13326</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12067</t>
+          <t>25863</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>16691</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>11125</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8540</t>
+          <t>24511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>15170</t>
+          <t>35196</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>11691</t>
+          <t>25860</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>18642</t>
+          <t>44740</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -2316,107 +2316,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>582</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>416306</t>
+          <t>248328</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>410094</t>
+          <t>234337</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>421976</t>
+          <t>261018</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>385332</t>
+          <t>256479</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>378780</t>
+          <t>243843</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>391383</t>
+          <t>268627</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>801638</t>
+          <t>504807</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>792599</t>
+          <t>488637</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>810316</t>
+          <t>522676</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>73,54%</t>
         </is>
       </c>
     </row>
@@ -2429,22 +2429,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>462280</t>
+          <t>356466</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>462280</t>
+          <t>356466</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>462280</t>
+          <t>356466</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2464,22 +2464,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>445152</t>
+          <t>354256</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>445152</t>
+          <t>354256</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>445152</t>
+          <t>354256</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2499,22 +2499,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>907432</t>
+          <t>710722</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>907432</t>
+          <t>710722</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>907432</t>
+          <t>710722</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2546,107 +2546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>22184</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8079</t>
+          <t>29746</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8938</t>
+          <t>34913</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6650</t>
+          <t>26796</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>12017</t>
+          <t>45077</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>14290</t>
+          <t>57097</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>11109</t>
+          <t>45607</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>18253</t>
+          <t>68774</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -2659,107 +2659,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>291</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1482</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7647</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2652</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>1518</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>4633</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>2225</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>5701</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -2772,107 +2772,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>407</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>3548</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>4758</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>9636</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>6160</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2746</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -2885,107 +2885,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>10562</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>6678</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>12063</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>12766</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>8199</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>18819</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -2998,107 +2998,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>6836</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>8033</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>6314</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>10944</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -3111,107 +3111,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>33531</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>24926</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6427</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>34488</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>26619</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>7342</t>
+          <t>44046</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9393</t>
+          <t>68019</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>56111</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>12574</t>
+          <t>82015</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>16,15%</t>
         </is>
       </c>
     </row>
@@ -3224,107 +3224,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>163178</t>
+          <t>157217</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>146031</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>166060</t>
+          <t>167387</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>70,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>578</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>210768</t>
+          <t>195535</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>206894</t>
+          <t>183846</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>214313</t>
+          <t>206853</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>373946</t>
+          <t>352752</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>368813</t>
+          <t>334652</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>378748</t>
+          <t>366397</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>72,16%</t>
         </is>
       </c>
     </row>
@@ -3337,22 +3337,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>175576</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>175576</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>175576</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3372,22 +3372,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>229159</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>229159</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>229159</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3407,22 +3407,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>404735</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>404735</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>404735</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3454,107 +3454,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>31891</t>
+          <t>78369</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>27107</t>
+          <t>65353</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>37589</t>
+          <t>92467</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>47534</t>
+          <t>94169</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>41418</t>
+          <t>80326</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>54191</t>
+          <t>108872</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>332</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>79425</t>
+          <t>172538</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>71086</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>88202</t>
+          <t>193728</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>13,48%</t>
         </is>
       </c>
     </row>
@@ -3567,107 +3567,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>17128</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>12144</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>24744</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14583</t>
+          <t>17237</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>11543</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>18103</t>
+          <t>23289</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>19653</t>
+          <t>34365</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>15882</t>
+          <t>27241</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>23995</t>
+          <t>43026</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -3680,107 +3680,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>571</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
           <t>0,08%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>11404</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>12950</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -3793,107 +3793,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>22619</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>16670</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8491</t>
+          <t>30387</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>19110</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>13552</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>28274</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>9825</t>
+          <t>41729</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>31868</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>13019</t>
+          <t>50969</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -3906,107 +3906,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>13678</t>
+          <t>30933</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>20224</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16675</t>
+          <t>48911</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9299</t>
+          <t>19316</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>12405</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>12129</t>
+          <t>31058</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>22977</t>
+          <t>50249</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>19442</t>
+          <t>36974</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>27776</t>
+          <t>68872</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -4019,107 +4019,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>15337</t>
+          <t>53863</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12106</t>
+          <t>43476</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>66523</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13201</t>
+          <t>53331</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>10549</t>
+          <t>42357</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>67559</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>28538</t>
+          <t>107194</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>24311</t>
+          <t>92150</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>33629</t>
+          <t>124505</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -4132,107 +4132,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>648601</t>
+          <t>474916</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>640676</t>
+          <t>452338</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>655217</t>
+          <t>493368</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>706103</t>
+          <t>548574</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>697939</t>
+          <t>526371</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>714299</t>
+          <t>567706</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>7681</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>1354704</t>
+          <t>1023490</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1344113</t>
+          <t>995254</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1365539</t>
+          <t>1049300</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>73,0%</t>
         </is>
       </c>
     </row>
@@ -4245,22 +4245,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>721058</t>
+          <t>679631</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>721058</t>
+          <t>679631</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>721058</t>
+          <t>679631</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4280,22 +4280,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>4470</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>796354</t>
+          <t>757844</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>796354</t>
+          <t>757844</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>796354</t>
+          <t>757844</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4315,22 +4315,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8526</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1517412</t>
+          <t>1437475</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1517412</t>
+          <t>1437475</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1517412</t>
+          <t>1437475</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8287,7 +8287,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en Barcelona (tasa de respuesta: 99,91%)</t>
+          <t>Continente de nacimiento en País Vasco (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8472,107 +8472,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12639</t>
+          <t>6179</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8914</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4958</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16074</t>
+          <t>6588</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14467</t>
+          <t>8253</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9071</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>11487</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -8585,107 +8585,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>388</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>823</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -8811,107 +8811,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6296</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>854</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>268</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10417</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -8924,107 +8924,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17888</t>
+          <t>5212</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8239</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30348</t>
+          <t>7723</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>25770</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>15711</t>
+          <t>6305</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>41884</t>
+          <t>11315</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -9037,107 +9037,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>7935</t>
+          <t>5799</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -9150,107 +9150,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69370</t>
+          <t>69117</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58083</t>
+          <t>65773</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79913</t>
+          <t>72004</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>83,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,08%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96560</t>
+          <t>110003</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86927</t>
+          <t>106664</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>103538</t>
+          <t>112751</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>80,16%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>165930</t>
+          <t>179120</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>150177</t>
+          <t>174253</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>178934</t>
+          <t>182936</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>87,27%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>89,13%</t>
         </is>
       </c>
     </row>
@@ -9263,22 +9263,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>505</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83202</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9298,22 +9298,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9333,22 +9333,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205245</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9380,107 +9380,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>50632</t>
+          <t>22685</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41256</t>
+          <t>18731</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61661</t>
+          <t>27664</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>161</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50342</t>
+          <t>34196</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41495</t>
+          <t>29222</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61229</t>
+          <t>39562</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>267</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>100974</t>
+          <t>56881</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>87105</t>
+          <t>50659</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>116640</t>
+          <t>64338</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -9493,107 +9493,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15088</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10521</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22021</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11460</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7706</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16615</t>
+          <t>13393</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>26548</t>
+          <t>14161</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19819</t>
+          <t>10875</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34883</t>
+          <t>17993</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -9606,72 +9606,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>270</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9681,32 +9681,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>327</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>2913</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -9719,107 +9719,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13619</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9158</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19921</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9662</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5899</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16180</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>23281</t>
+          <t>5734</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16581</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>31658</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -9832,107 +9832,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9892</t>
+          <t>7137</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>5228</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15710</t>
+          <t>9775</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8273</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14116</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>18166</t>
+          <t>12669</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12810</t>
+          <t>9790</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25551</t>
+          <t>15577</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -9945,107 +9945,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18505</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13326</t>
+          <t>6854</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25863</t>
+          <t>12067</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16691</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11125</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24511</t>
+          <t>8540</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>35196</t>
+          <t>15170</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>25860</t>
+          <t>11691</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>44740</t>
+          <t>18642</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -10058,107 +10058,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>248328</t>
+          <t>416306</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234337</t>
+          <t>410094</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>261018</t>
+          <t>421976</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,74%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>256479</t>
+          <t>385332</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>243843</t>
+          <t>378780</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>268627</t>
+          <t>391383</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>72,4%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>504807</t>
+          <t>801638</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488637</t>
+          <t>792599</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>522676</t>
+          <t>810316</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>89,3%</t>
         </is>
       </c>
     </row>
@@ -10171,22 +10171,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>356466</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>356466</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>356466</t>
+          <t>462280</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10206,22 +10206,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2506</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>354256</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>354256</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>354256</t>
+          <t>445152</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10241,22 +10241,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>710722</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>710722</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>710722</t>
+          <t>907432</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10288,107 +10288,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22184</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16370</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29746</t>
+          <t>8079</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>34913</t>
+          <t>8938</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26796</t>
+          <t>6650</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>45077</t>
+          <t>12017</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>57097</t>
+          <t>14290</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>45607</t>
+          <t>11109</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>68774</t>
+          <t>18253</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -10401,107 +10401,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>840</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>256</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3803</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7647</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>8337</t>
+          <t>5701</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -10514,107 +10514,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>609</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3548</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4758</t>
+          <t>503</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9636</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>281</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>2746</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -10627,107 +10627,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10562</t>
+          <t>782</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6678</t>
+          <t>475</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3852</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>12766</t>
+          <t>619</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>8199</t>
+          <t>144</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>18819</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -10740,107 +10740,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>625</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6836</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>555</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>109</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8033</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>6314</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>10944</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -10853,107 +10853,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33531</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>24926</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42371</t>
+          <t>6427</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>34488</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26619</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>44046</t>
+          <t>7342</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>68019</t>
+          <t>9393</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>56111</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>82015</t>
+          <t>12574</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -10966,107 +10966,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>843</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>157217</t>
+          <t>163178</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>146031</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>167387</t>
+          <t>166060</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>195535</t>
+          <t>210768</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>183846</t>
+          <t>206894</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>206853</t>
+          <t>214313</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>352752</t>
+          <t>373946</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>334652</t>
+          <t>368813</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>366397</t>
+          <t>378748</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -11079,22 +11079,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>908</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175576</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -11114,22 +11114,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229159</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -11149,22 +11149,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>404735</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -11196,107 +11196,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>78369</t>
+          <t>31891</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>65353</t>
+          <t>27107</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>92467</t>
+          <t>37589</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>94169</t>
+          <t>47534</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>80326</t>
+          <t>41418</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>108872</t>
+          <t>54191</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>172538</t>
+          <t>79425</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>71086</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>193728</t>
+          <t>88202</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -11309,107 +11309,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17128</t>
+          <t>5070</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12144</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24744</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17237</t>
+          <t>14583</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>11543</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>23289</t>
+          <t>18103</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
           <t>2,27%</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>108</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>34365</t>
+          <t>19653</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>27241</t>
+          <t>15882</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>43026</t>
+          <t>23995</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -11422,107 +11422,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>1803</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>571</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>4138</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1681</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3556</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
         <is>
           <t>0,08%</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>6107</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>3268</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>11404</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>7910</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>12950</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -11535,107 +11535,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>22619</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16670</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>30387</t>
+          <t>8491</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19110</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>13552</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>28274</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>41729</t>
+          <t>9825</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>31868</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>50969</t>
+          <t>13019</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -11648,107 +11648,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>30933</t>
+          <t>13678</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20224</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>48911</t>
+          <t>16675</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19316</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12405</t>
+          <t>6961</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>31058</t>
+          <t>12129</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>141</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>50249</t>
+          <t>22977</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>36974</t>
+          <t>19442</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>68872</t>
+          <t>27776</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -11761,107 +11761,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>53863</t>
+          <t>15337</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>43476</t>
+          <t>12106</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>66523</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>53331</t>
+          <t>13201</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>42357</t>
+          <t>10549</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>67559</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>107194</t>
+          <t>28538</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>92150</t>
+          <t>24311</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>124505</t>
+          <t>33629</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -11874,107 +11874,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>474916</t>
+          <t>648601</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>452338</t>
+          <t>640676</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>493368</t>
+          <t>655217</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>548574</t>
+          <t>706103</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>526371</t>
+          <t>697939</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>567706</t>
+          <t>714299</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>7681</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>1023490</t>
+          <t>1354704</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>995254</t>
+          <t>1344113</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1049300</t>
+          <t>1365539</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>89,99%</t>
         </is>
       </c>
     </row>
@@ -11987,22 +11987,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>679631</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>679631</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>679631</t>
+          <t>721058</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -12022,22 +12022,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>757844</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>757844</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>757844</t>
+          <t>796354</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -12057,22 +12057,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>8526</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1437475</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1437475</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1437475</t>
+          <t>1517412</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
